--- a/biology/Botanique/Gleditsia_japonica/Gleditsia_japonica.xlsx
+++ b/biology/Botanique/Gleditsia_japonica/Gleditsia_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gleditsia japonica, ou Févier du Japon, est une espèce d'arbres du genre Gleditsia, de la famille des Fabaceae. Il est originaire de l'Asie orientale.
 </t>
@@ -511,9 +523,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gleditsia japonica est couramment appelé Févier du Japon dans les pays de langue française, japanische Gleditschie en Allemagne[3], et Japanese honey-locust dans les pays anglophones[4]. Au Japon, le Févier du Japon est nommé Saikachi[8], et, plus rarement, Kawarafuji no ki[9],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gleditsia japonica est couramment appelé Févier du Japon dans les pays de langue française, japanische Gleditschie en Allemagne, et Japanese honey-locust dans les pays anglophones. Au Japon, le Févier du Japon est nommé Saikachi, et, plus rarement, Kawarafuji no ki,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gleditsia japonica est un arbre à feuilles caduques pouvant mesurer de 15 à 20 m de haut pour un diamètre basal d'environ 2 m[10],[7]. Le tronc et les branches sont garnis d'épines très acérées. Les feuilles, arrangées par paires de 12 à 24 par rameau, sont alternes, paripennées, et mesurent entre 20 et 30 cm. L'espèce est dioïque et très mellifère. Chaque année, les fleurs apparaissent en grappes de mai à juin. actinomorphes, elles sont composées de 4 pétales de forme elliptique et de couleur vert olive pâle, et de 8 étamines. De septembre à octobre, elles donnent de longues gousses vertes aplaties, de 20 à 30 cm de long, qui brunissent au fil du temps, avant de tomber sur le sol. Celles-ci contiennent des graines plates elliptiques d'environ 1 cm de diamètre[7],[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gleditsia japonica est un arbre à feuilles caduques pouvant mesurer de 15 à 20 m de haut pour un diamètre basal d'environ 2 m,. Le tronc et les branches sont garnis d'épines très acérées. Les feuilles, arrangées par paires de 12 à 24 par rameau, sont alternes, paripennées, et mesurent entre 20 et 30 cm. L'espèce est dioïque et très mellifère. Chaque année, les fleurs apparaissent en grappes de mai à juin. actinomorphes, elles sont composées de 4 pétales de forme elliptique et de couleur vert olive pâle, et de 8 étamines. De septembre à octobre, elles donnent de longues gousses vertes aplaties, de 20 à 30 cm de long, qui brunissent au fil du temps, avant de tomber sur le sol. Celles-ci contiennent des graines plates elliptiques d'environ 1 cm de diamètre,.
 			Épines de Févier du Japon.
 			Grappe de fleurs de Févier du Japon.
 			Gousse de Févier du Japon.
@@ -576,9 +592,11 @@
           <t>Distribution géographique et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Févier du Japon est originaire de Chine, du Japon et de Corée[3],[7]. Il apprécie les terrains humides (marais et rives de cours d'eau)[10],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Févier du Japon est originaire de Chine, du Japon et de Corée,. Il apprécie les terrains humides (marais et rives de cours d'eau),.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos [12] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos  :
 Gleditsia japonica var. delavayi (Franch.) L.C. Li ;
 Gleditsia japonica var. inermis Nakai ;
 Gleditsia japonica var. japonica ;
@@ -644,9 +664,11 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Févier du Japon est cultivé comme plante ornementale dans tous les pays d'où il est originaire[3],[7]. Autrefois, de la cosse de ses gousses, étaient extraites des saponines à partir desquelles du savon et des détergents étaient fabriqués[7],[11]. Dans la médecine traditionnelle chinoise et au Japon, il est utilisé comme plante officinale ; il entre dans la composition de fortifiants et de remèdes contre les douleurs rhumatismales[7],[13].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Févier du Japon est cultivé comme plante ornementale dans tous les pays d'où il est originaire,. Autrefois, de la cosse de ses gousses, étaient extraites des saponines à partir desquelles du savon et des détergents étaient fabriqués,. Dans la médecine traditionnelle chinoise et au Japon, il est utilisé comme plante officinale ; il entre dans la composition de fortifiants et de remèdes contre les douleurs rhumatismales,.
 </t>
         </is>
       </c>
